--- a/starbucks_sweeteners.xlsx
+++ b/starbucks_sweeteners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamiepark/Dropbox/Mac/Desktop/projects/nutrition_calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E6D861-C5A1-F346-A47B-B428D037BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C132DCAC-885F-F14D-8CB9-E19D8A5BFA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14500" yWindow="500" windowWidth="14300" windowHeight="16080" xr2:uid="{EBA101F1-E442-1A48-9335-E2C1C07FF184}"/>
   </bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82028011-B833-844D-95C7-0697A42DAC94}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,6 +685,30 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
